--- a/src/data/func_log.xlsx
+++ b/src/data/func_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ESTADO</t>
+          <t>MUNICIPIO</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>CEP</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CELULAR</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>FONE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SITUACAO</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO_MUNICIPIO</t>
         </is>
       </c>
     </row>
@@ -548,32 +558,42 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>JOAO PESSOA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>12345678</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>98765432</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2507507</t>
         </is>
       </c>
     </row>
@@ -616,29 +636,37 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>CAICARA DO NORTE</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>54321098</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>CADASTRADO</t>
         </is>
+      </c>
+      <c r="P3" t="n">
+        <v>2401859</v>
       </c>
     </row>
     <row r="4">
@@ -680,32 +708,42 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>JOAO PESSOA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>98765432</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>98765432</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2507507</t>
         </is>
       </c>
     </row>
@@ -748,29 +786,37 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BOM JESUS</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>34567890</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>CADASTRADO</t>
         </is>
+      </c>
+      <c r="P5" t="n">
+        <v>2502201</v>
       </c>
     </row>
     <row r="6">
@@ -812,29 +858,37 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>PATOS</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>67890123</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
         <is>
           <t>CADASTRADO</t>
         </is>
+      </c>
+      <c r="P6" t="n">
+        <v>2510808</v>
       </c>
     </row>
     <row r="7">
@@ -876,26 +930,38 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>BOM JESUS</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>90123456</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>2401701</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -936,30 +1002,42 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>ALAGOA GRANDE</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>23456789</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>98765432</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>2500304</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1004,26 +1082,38 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>BAYEUX</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>56789012</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>2501807</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1064,33 +1154,41 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>BELEM DO SAO FRANCISCO</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>89012345</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>98765432</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>CADASTRADO</t>
         </is>
+      </c>
+      <c r="P10" t="n">
+        <v>2601607</v>
       </c>
     </row>
     <row r="11">
@@ -1132,33 +1230,41 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>PANELAS</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>45678901</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>987654321</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>98765432</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>CADASTRADO</t>
         </is>
+      </c>
+      <c r="P11" t="n">
+        <v>2610202</v>
       </c>
     </row>
     <row r="12">
@@ -1194,24 +1300,38 @@
           <t>BAIRRO J</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ALHANDRA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>56789012</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>983321492</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>CADASTRADO</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>CADASTRANDO</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/data/func_log.xlsx
+++ b/src/data/func_log.xlsx
@@ -600,12 +600,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MARIA SOUZA</t>
+          <t>PEDRO SANTOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -615,43 +615,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98765432100</t>
+          <t>45678912300</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RUA B</t>
+          <t>RUA C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>789</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BAIRRO X</t>
+          <t>BAIRRO Y</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CAICARA DO NORTE</t>
+          <t>JOAO PESSOA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>54321098</t>
+          <t>98765432</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -659,25 +659,31 @@
           <t>987654321</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>98765432</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>CADASTRADO</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v>2401859</v>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2507507</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PEDRO SANTOS</t>
+          <t>MARIA SOUZA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -687,43 +693,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45678912300</t>
+          <t>98765432100</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RUA C</t>
+          <t>RUA B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>456</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BAIRRO Y</t>
+          <t>BAIRRO X</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>JOAO PESSOA</t>
+          <t>CAICARA DO NORTE</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>RN</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>98765432</t>
+          <t>54321098</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -731,21 +737,13 @@
           <t>987654321</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>98765432</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>CADASTRADO</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2507507</t>
-        </is>
-      </c>
+          <t>CADASTRANDO</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,8 +813,10 @@
           <t>CADASTRADO</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>2502201</v>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2502201</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -884,12 +884,10 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>CADASTRADO</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>2510808</v>
-      </c>
+          <t>CADASTRANDO</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -959,8 +957,10 @@
           <t>CADASTRADO</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>2401701</v>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2401701</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1035,8 +1035,10 @@
           <t>CADASTRADO</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>2500304</v>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2500304</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1108,12 +1110,10 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>CADASTRADO</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>2501807</v>
-      </c>
+          <t>CADASTRANDO</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1328,10 +1328,12 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>CADASTRANDO</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+          <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>2500601</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/data/func_log.xlsx
+++ b/src/data/func_log.xlsx
@@ -740,10 +740,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>CADASTRANDO</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+          <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2401859</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -884,10 +888,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>CADASTRANDO</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+          <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2510808</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1110,10 +1118,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>CADASTRANDO</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
+          <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2501807</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1187,8 +1199,10 @@
           <t>CADASTRADO</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>2601607</v>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2601607</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1263,8 +1277,10 @@
           <t>CADASTRADO</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>2610202</v>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2610202</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1331,8 +1347,10 @@
           <t>CADASTRADO</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>2500601</v>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2500601</t>
+        </is>
       </c>
     </row>
   </sheetData>
